--- a/biology/Histoire de la zoologie et de la botanique/Caleb_Marshall_Brown/Caleb_Marshall_Brown.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Caleb_Marshall_Brown/Caleb_Marshall_Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caleb Marshall Brown est un paléontologue canadien travaillant à Drumheller, en Alberta. 
 </t>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se spécialise dans la taphonomie et étudie les variations de l'ornementation des cornes et des volants sur les cératopsiens pour tester les théories de l'évolution[1].
-Caleb a grandi à Red Deer et a obtenu son baccalauréat et sa maîtrise à Calgary. Il a terminé son doctorat à l'Université de Toronto en étudiant la variation au niveau de la population et la morphologie évolutive des dinosaures à cornes de l'Alberta tout en travaillant au laboratoire Evans (dirigé par David C. Evans). Il est actuellement conservateur de Dinosaur Systematics &amp; Evolution au Royal Tyrrell Museum de Drumheller, en Alberta[1].
-Caleb a travaillé en Alberta, dans le sous-arctique canadien, en Chine et en Mongolie, et a aidé à décrire au moins six nouvelles espèces de dinosaures[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se spécialise dans la taphonomie et étudie les variations de l'ornementation des cornes et des volants sur les cératopsiens pour tester les théories de l'évolution.
+Caleb a grandi à Red Deer et a obtenu son baccalauréat et sa maîtrise à Calgary. Il a terminé son doctorat à l'Université de Toronto en étudiant la variation au niveau de la population et la morphologie évolutive des dinosaures à cornes de l'Alberta tout en travaillant au laboratoire Evans (dirigé par David C. Evans). Il est actuellement conservateur de Dinosaur Systematics &amp; Evolution au Royal Tyrrell Museum de Drumheller, en Alberta.
+Caleb a travaillé en Alberta, dans le sous-arctique canadien, en Chine et en Mongolie, et a aidé à décrire au moins six nouvelles espèces de dinosaures.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Remerciements et mariage : Regaliceratops peterhewsi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la section des remerciements de l'article décrivant Regaliceratops peterhewsi, Caleb a proposé à sa petite amie d'alors avec la ligne: "C.M.B. aimerait spécifiquement souligner le soutien continu et indéfectible de Lorna O'Brien. Lorna, veux-tu m'épouser?" (elle a dit oui)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la section des remerciements de l'article décrivant Regaliceratops peterhewsi, Caleb a proposé à sa petite amie d'alors avec la ligne: "C.M.B. aimerait spécifiquement souligner le soutien continu et indéfectible de Lorna O'Brien. Lorna, veux-tu m'épouser?" (elle a dit oui).
 </t>
         </is>
       </c>
